--- a/biology/Zoologie/Hamadryas/Hamadryas.xlsx
+++ b/biology/Zoologie/Hamadryas/Hamadryas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hamadryas regroupe des lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Biblidinae.
 </t>
@@ -511,17 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Hamadryas a été décrit par l'entomologiste allemand Jakob Hübner, 1806[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hamadryas a été décrit par l'entomologiste allemand Jakob Hübner, 1806.
 L'espèce type pour le genre est Papilio amphinome (Linnaeus, 1767).
-Synonymie
-Apatura (Illiger, 1807)[2] Attention le genre Apatura (Fabricius, 1807) est valide.
-Ageronia (Hübner, 1819) [3]
-Philocala (Billberg, 1820)[4]
-Peridromia( Lacordaire, 1833)
-Peridromia (Boisduval, 1836)[5]
-Amphichlora (Felder, 1861)[6]</t>
+</t>
         </is>
       </c>
     </row>
@@ -546,10 +554,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Apatura (Illiger, 1807) Attention le genre Apatura (Fabricius, 1807) est valide.
+Ageronia (Hübner, 1819) 
+Philocala (Billberg, 1820)
+Peridromia( Lacordaire, 1833)
+Peridromia (Boisduval, 1836)
+Amphichlora (Felder, 1861)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hamadryas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des espèces
 Hamadryas albicornis Staudinger, 1886
@@ -560,16 +611,16 @@
 Hamadryas arinome (Lucas, 1853)
 Hamadryas atlantis (Bates, 1864)
 Hamadryas belladonna (Bates, 1865)
-Hamadryas chloe (Stoll, [1787])
+Hamadryas chloe (Stoll, )
 Hamadryas epinome (Felder &amp; Felder, 1867)
-Hamadryas februa (Hübner, [1823])
+Hamadryas februa (Hübner, )
 Hamadryas feronia (Linnaeus, 1758)
-Hamadryas fornax (Hübner, [1823])
+Hamadryas fornax (Hübner, )
 Hamadryas glauconome (Bates, 1864)
 Hamadryas guatemalena (Bates, 1864)
 Hamadryas iphthime (Bates, 1864)
 Hamadryas julitta (Fruhstorfer, 1916) ou Hamadryas honorina ou Hamadryas glauconome honorina
-Hamadryas laodamia (Cramer, [1777])
+Hamadryas laodamia (Cramer, )
 Hamadryas velutina (Bates, 1865)
 			Hamadryas amphinome
 			Hamadryas arinome - MHNT
@@ -584,31 +635,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Hamadryas</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hamadryas</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Amérique du Nord : sud du Texas et extrême sud de l'Arizona.
 Cuba, Haïti, République dominicaine, Guadeloupe.
